--- a/pred_ohlcv/54_21/2019-11-01 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 IOST ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>968200.5308000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1071158.6084</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1652127.7892</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1658867.7892</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1636205.5093</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1636645.3946</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1635542.9209</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1635795.4239</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1635522.7666</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1635522.7666</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1635371.2968</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1635016.7737</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1634996.7737</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1634986.7737</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1628534.358</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1628534.358</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1677318.1058</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1678482.8652</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1721810.5255</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1721492.8429</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1721492.8429</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1721795.5255</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1555033.5417</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1555033.5417</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1556852.5417</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1556822.5417</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1556812.5417</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1557494.8277</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1556637.1978</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1556627.1978</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1553474.1298</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1552600.5133</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1105317.0212</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1117089.2033</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1094349.2033</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1094249.2033</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>832438.1484999997</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1929341.218</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 IOST ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>968200.5308000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1071158.6084</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1974789.4525</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1969534.4525</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1914041.9189</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1652127.7892</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1658867.7892</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1635695.0827</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1636602.9947</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1636205.5093</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1637423.7767</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1636645.3946</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1635542.9209</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1635795.4239</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1635522.7666</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1635522.7666</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1635371.2968</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1635016.7737</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1635006.7737</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1626057.1677</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1677308.1058</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1105317.0212</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1117089.2033</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1094349.2033</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1094249.2033</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>559353.6894999996</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>535247.6921999996</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>632781.1796999996</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>832438.1484999997</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1929341.218</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2036632.4465</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
